--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationdosage.xlsx
@@ -432,7 +432,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUsageJAMIAdditional_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationUsageJAMIAdditional_VS</t>
   </si>
   <si>
     <t>RXO-7</t>
@@ -967,7 +967,7 @@
 【JP Core仕様】JAMI標準用法コード(16桁)を使用することが望ましいが、ローカルコードも使用可能。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUsageJAMI_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationUsageJAMI_VS</t>
   </si>
   <si>
     <t>Timing.code</t>
@@ -1015,7 +1015,7 @@
     <t>A coded specification of the anatomic site where the medication first enters the body.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
   </si>
   <si>
     <t>.approachSiteCode</t>
@@ -1037,7 +1037,7 @@
     <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationRouteHL70162_VS</t>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationRouteHL70162_VS</t>
   </si>
   <si>
     <t>.routeCode</t>
@@ -1126,7 +1126,7 @@
     <t>他のコードシステムへの変換や代替のコードシステムを使ってエンコードしてもよい。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
   </si>
   <si>
     <t>Dosage.method.coding.id</t>
@@ -1258,7 +1258,7 @@
     <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コードを識別するURI。２桁コードurn:oid:1.2.392.200250.2.2.20.40</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.200250.2.2.20.40</t>
@@ -1306,7 +1306,7 @@
     <t>このtypeに値が指定されていなければ、"ordered"であることが想定される。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationIngredientStrengthStrengthType_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationIngredientStrengthStrengthType_VS</t>
   </si>
   <si>
     <t>RXO-21; RXE-23</t>
@@ -1809,7 +1809,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="76.41015625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="81.4375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="77.19140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationdosage.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationdosage.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationdosage.xlsx
@@ -252,141 +252,141 @@
     <t>薬の服用方法・服用した方法、または服用すべき方法</t>
   </si>
   <si>
+    <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
+  </si>
+  <si>
+    <t>Dosage.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Dosage.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>periodOfUse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_PeriodOfUse}
+</t>
+  </si>
+  <si>
+    <t>投与期間の開始日を明示するための拡張</t>
+  </si>
+  <si>
+    <t>MedicationRequestの投与期間の開始日を明示するための拡張</t>
+  </si>
+  <si>
+    <t>usageDuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_UsageDuration}
+</t>
+  </si>
+  <si>
+    <t>実投与日数</t>
+  </si>
+  <si>
+    <t>隔日投与などで実投与日数と処方期間が異なる場合に用いられる。</t>
+  </si>
+  <si>
+    <t>Dosage.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Dosage.sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer
+</t>
+  </si>
+  <si>
+    <t>服用指示の順番</t>
+  </si>
+  <si>
+    <t>どの服用指示を適応するか判断するかについての順序を示したもの</t>
+  </si>
+  <si>
+    <t>32 bitの数値。これ以上の値であれば10進数を使うこと。</t>
+  </si>
+  <si>
+    <t>もし、複数の服用法(Dosage)でsequenceの数値が同じであれば、その指示が同時に扱われることを示している。sequenceの数値が異なれば、服用指示(Dosage)の順番を意図している。</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
-  </si>
-  <si>
-    <t>Dosage.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Dosage.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>periodOfUse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_PeriodOfUse}
-</t>
-  </si>
-  <si>
-    <t>投与期間の開始日を明示するための拡張</t>
-  </si>
-  <si>
-    <t>MedicationRequestの投与期間の開始日を明示するための拡張</t>
-  </si>
-  <si>
-    <t>usageDuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_UsageDuration}
-</t>
-  </si>
-  <si>
-    <t>実投与日数</t>
-  </si>
-  <si>
-    <t>隔日投与などで実投与日数と処方期間が異なる場合に用いられる。</t>
-  </si>
-  <si>
-    <t>Dosage.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Dosage.sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer
-</t>
-  </si>
-  <si>
-    <t>服用指示の順番</t>
-  </si>
-  <si>
-    <t>どの服用指示を適応するか判断するかについての順序を示したもの</t>
-  </si>
-  <si>
-    <t>32 bitの数値。これ以上の値であれば10進数を使うこと。</t>
-  </si>
-  <si>
-    <t>もし、複数の服用法(Dosage)でsequenceの数値が同じであれば、その指示が同時に扱われることを示している。sequenceの数値が異なれば、服用指示(Dosage)の順番を意図している。</t>
   </si>
   <si>
     <t>.text</t>
@@ -2034,10 +2034,10 @@
         <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>75</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2056,25 +2056,25 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -2125,22 +2125,22 @@
         <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>75</v>
@@ -2148,11 +2148,11 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -2171,16 +2171,16 @@
         <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
@@ -2218,19 +2218,19 @@
         <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>76</v>
@@ -2242,10 +2242,10 @@
         <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>75</v>
@@ -2253,10 +2253,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>75</v>
@@ -2266,7 +2266,7 @@
         <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>75</v>
@@ -2278,13 +2278,13 @@
         <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2335,7 +2335,7 @@
         <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>76</v>
@@ -2347,7 +2347,7 @@
         <v>75</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>75</v>
@@ -2358,10 +2358,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>75</v>
@@ -2371,7 +2371,7 @@
         <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>75</v>
@@ -2383,13 +2383,13 @@
         <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -2440,7 +2440,7 @@
         <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
@@ -2452,7 +2452,7 @@
         <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>75</v>
@@ -2463,11 +2463,11 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2480,25 +2480,25 @@
         <v>75</v>
       </c>
       <c r="H7" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="I7" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="O7" t="s" s="2">
         <v>75</v>
@@ -2547,7 +2547,7 @@
         <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>76</v>
@@ -2559,10 +2559,10 @@
         <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>75</v>
@@ -2570,7 +2570,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -2581,7 +2581,7 @@
         <v>76</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>75</v>
@@ -2590,22 +2590,22 @@
         <v>75</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="O8" t="s" s="2">
         <v>75</v>
@@ -2654,19 +2654,19 @@
         <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>121</v>
@@ -2688,19 +2688,19 @@
         <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="J9" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="G9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="J9" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>124</v>
@@ -2767,13 +2767,13 @@
         <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>121</v>
@@ -2804,7 +2804,7 @@
         <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>130</v>
@@ -2878,7 +2878,7 @@
         <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>121</v>
@@ -2900,19 +2900,19 @@
         <v>76</v>
       </c>
       <c r="F11" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>139</v>
@@ -2977,13 +2977,13 @@
         <v>76</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>121</v>
@@ -3005,7 +3005,7 @@
         <v>76</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>75</v>
@@ -3084,19 +3084,19 @@
         <v>76</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>147</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13">
@@ -3112,25 +3112,25 @@
         <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J13" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J13" t="s" s="2">
+      <c r="K13" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3181,22 +3181,22 @@
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>75</v>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3227,16 +3227,16 @@
         <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3274,19 +3274,19 @@
         <v>75</v>
       </c>
       <c r="AA14" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AB14" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AB14" t="s" s="2">
+      <c r="AC14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD14" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD14" t="s" s="2">
+      <c r="AE14" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
@@ -3298,10 +3298,10 @@
         <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>75</v>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3326,25 +3326,25 @@
         <v>75</v>
       </c>
       <c r="H15" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="I15" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="N15" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>75</v>
@@ -3393,7 +3393,7 @@
         <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>76</v>
@@ -3405,10 +3405,10 @@
         <v>75</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>75</v>
@@ -3436,7 +3436,7 @@
         <v>75</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>152</v>
@@ -3510,7 +3510,7 @@
         <v>75</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>157</v>
@@ -3532,7 +3532,7 @@
         <v>76</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>75</v>
@@ -3541,7 +3541,7 @@
         <v>75</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>159</v>
@@ -3609,7 +3609,7 @@
         <v>76</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>75</v>
@@ -3637,25 +3637,25 @@
         <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J18" t="s" s="2">
+      <c r="K18" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3706,22 +3706,22 @@
         <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>75</v>
@@ -3733,7 +3733,7 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3752,16 +3752,16 @@
         <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3799,19 +3799,19 @@
         <v>75</v>
       </c>
       <c r="AA19" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AB19" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AB19" t="s" s="2">
+      <c r="AC19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD19" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD19" t="s" s="2">
+      <c r="AE19" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>76</v>
@@ -3823,10 +3823,10 @@
         <v>75</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>75</v>
@@ -3845,7 +3845,7 @@
         <v>76</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>75</v>
@@ -3854,7 +3854,7 @@
         <v>75</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>169</v>
@@ -3909,7 +3909,7 @@
         <v>75</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>173</v>
@@ -3918,13 +3918,13 @@
         <v>76</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>174</v>
@@ -3948,7 +3948,7 @@
         <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>75</v>
@@ -3957,7 +3957,7 @@
         <v>75</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>176</v>
@@ -4023,13 +4023,13 @@
         <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>174</v>
@@ -4051,25 +4051,25 @@
         <v>76</v>
       </c>
       <c r="F22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J22" t="s" s="2">
+      <c r="K22" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4120,22 +4120,22 @@
         <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>75</v>
@@ -4147,7 +4147,7 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4166,16 +4166,16 @@
         <v>75</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4213,19 +4213,19 @@
         <v>75</v>
       </c>
       <c r="AA23" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AB23" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AB23" t="s" s="2">
+      <c r="AC23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD23" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD23" t="s" s="2">
+      <c r="AE23" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
@@ -4237,10 +4237,10 @@
         <v>75</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>75</v>
@@ -4259,7 +4259,7 @@
         <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>75</v>
@@ -4268,7 +4268,7 @@
         <v>75</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>180</v>
@@ -4338,13 +4338,13 @@
         <v>76</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>185</v>
@@ -4366,16 +4366,16 @@
         <v>76</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>188</v>
@@ -4445,13 +4445,13 @@
         <v>76</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>197</v>
@@ -4473,19 +4473,19 @@
         <v>76</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="J26" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="J26" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>200</v>
@@ -4550,13 +4550,13 @@
         <v>76</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>205</v>
@@ -4578,7 +4578,7 @@
         <v>76</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>75</v>
@@ -4587,7 +4587,7 @@
         <v>75</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>208</v>
@@ -4655,13 +4655,13 @@
         <v>76</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>214</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>215</v>
@@ -4683,7 +4683,7 @@
         <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>75</v>
@@ -4692,7 +4692,7 @@
         <v>75</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>188</v>
@@ -4762,13 +4762,13 @@
         <v>76</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>223</v>
@@ -4790,7 +4790,7 @@
         <v>76</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>75</v>
@@ -4799,7 +4799,7 @@
         <v>75</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>225</v>
@@ -4869,13 +4869,13 @@
         <v>76</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>231</v>
@@ -4897,7 +4897,7 @@
         <v>76</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>75</v>
@@ -4906,7 +4906,7 @@
         <v>75</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>225</v>
@@ -4974,13 +4974,13 @@
         <v>76</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>231</v>
@@ -5002,7 +5002,7 @@
         <v>76</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>75</v>
@@ -5011,7 +5011,7 @@
         <v>75</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>180</v>
@@ -5081,13 +5081,13 @@
         <v>76</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>243</v>
@@ -5109,7 +5109,7 @@
         <v>76</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>75</v>
@@ -5118,7 +5118,7 @@
         <v>75</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>180</v>
@@ -5188,13 +5188,13 @@
         <v>76</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>243</v>
@@ -5216,7 +5216,7 @@
         <v>76</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>75</v>
@@ -5225,7 +5225,7 @@
         <v>75</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>188</v>
@@ -5293,13 +5293,13 @@
         <v>76</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>254</v>
@@ -5321,7 +5321,7 @@
         <v>76</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>75</v>
@@ -5330,7 +5330,7 @@
         <v>75</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>225</v>
@@ -5400,13 +5400,13 @@
         <v>76</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>243</v>
@@ -5428,7 +5428,7 @@
         <v>76</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>75</v>
@@ -5437,7 +5437,7 @@
         <v>75</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>225</v>
@@ -5505,13 +5505,13 @@
         <v>76</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>243</v>
@@ -5533,7 +5533,7 @@
         <v>76</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>75</v>
@@ -5542,7 +5542,7 @@
         <v>75</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>180</v>
@@ -5610,13 +5610,13 @@
         <v>76</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>243</v>
@@ -5638,7 +5638,7 @@
         <v>76</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>75</v>
@@ -5647,7 +5647,7 @@
         <v>75</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>180</v>
@@ -5715,13 +5715,13 @@
         <v>76</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>243</v>
@@ -5743,7 +5743,7 @@
         <v>76</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>75</v>
@@ -5752,7 +5752,7 @@
         <v>75</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>188</v>
@@ -5820,13 +5820,13 @@
         <v>76</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>254</v>
@@ -5857,7 +5857,7 @@
         <v>75</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>188</v>
@@ -5929,10 +5929,10 @@
         <v>75</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>75</v>
@@ -5960,7 +5960,7 @@
         <v>75</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>285</v>
@@ -6034,10 +6034,10 @@
         <v>75</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>75</v>
@@ -6065,7 +6065,7 @@
         <v>75</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>188</v>
@@ -6141,7 +6141,7 @@
         <v>75</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>298</v>
@@ -6163,7 +6163,7 @@
         <v>76</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>75</v>
@@ -6172,7 +6172,7 @@
         <v>75</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>300</v>
@@ -6240,13 +6240,13 @@
         <v>76</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>304</v>
@@ -6268,7 +6268,7 @@
         <v>76</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>75</v>
@@ -6277,7 +6277,7 @@
         <v>75</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>130</v>
@@ -6343,13 +6343,13 @@
         <v>76</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>311</v>
@@ -6371,7 +6371,7 @@
         <v>76</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>75</v>
@@ -6380,7 +6380,7 @@
         <v>75</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>313</v>
@@ -6448,13 +6448,13 @@
         <v>76</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>317</v>
@@ -6476,7 +6476,7 @@
         <v>76</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>75</v>
@@ -6485,7 +6485,7 @@
         <v>75</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>130</v>
@@ -6553,13 +6553,13 @@
         <v>76</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>325</v>
@@ -6581,7 +6581,7 @@
         <v>76</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>75</v>
@@ -6590,7 +6590,7 @@
         <v>75</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>130</v>
@@ -6658,13 +6658,13 @@
         <v>76</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>332</v>
@@ -6686,7 +6686,7 @@
         <v>76</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>75</v>
@@ -6695,7 +6695,7 @@
         <v>75</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>130</v>
@@ -6765,13 +6765,13 @@
         <v>76</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>341</v>
@@ -6793,25 +6793,25 @@
         <v>76</v>
       </c>
       <c r="F48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J48" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J48" t="s" s="2">
+      <c r="K48" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6862,22 +6862,22 @@
         <v>75</v>
       </c>
       <c r="AE48" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>75</v>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6908,16 +6908,16 @@
         <v>75</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6955,19 +6955,19 @@
         <v>75</v>
       </c>
       <c r="AA49" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AB49" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AB49" t="s" s="2">
+      <c r="AC49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD49" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD49" t="s" s="2">
+      <c r="AE49" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
@@ -6979,10 +6979,10 @@
         <v>75</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>75</v>
@@ -7010,7 +7010,7 @@
         <v>75</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>346</v>
@@ -7069,7 +7069,7 @@
         <v>75</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AE50" t="s" s="2">
         <v>352</v>
@@ -7084,7 +7084,7 @@
         <v>75</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>353</v>
@@ -7108,7 +7108,7 @@
         <v>76</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>75</v>
@@ -7117,7 +7117,7 @@
         <v>75</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>346</v>
@@ -7191,7 +7191,7 @@
         <v>75</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>353</v>
@@ -7213,25 +7213,25 @@
         <v>76</v>
       </c>
       <c r="F52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J52" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J52" t="s" s="2">
+      <c r="K52" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7282,22 +7282,22 @@
         <v>75</v>
       </c>
       <c r="AE52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>75</v>
@@ -7309,7 +7309,7 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7328,16 +7328,16 @@
         <v>75</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7375,19 +7375,19 @@
         <v>75</v>
       </c>
       <c r="AA53" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AB53" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AB53" t="s" s="2">
+      <c r="AC53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD53" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD53" t="s" s="2">
+      <c r="AE53" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
@@ -7399,10 +7399,10 @@
         <v>75</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>75</v>
@@ -7418,10 +7418,10 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>75</v>
@@ -7430,7 +7430,7 @@
         <v>75</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>208</v>
@@ -7500,13 +7500,13 @@
         <v>76</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>370</v>
@@ -7528,19 +7528,19 @@
         <v>76</v>
       </c>
       <c r="F55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="J55" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>373</v>
@@ -7605,13 +7605,13 @@
         <v>76</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>377</v>
@@ -7633,7 +7633,7 @@
         <v>76</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>75</v>
@@ -7642,7 +7642,7 @@
         <v>75</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>188</v>
@@ -7710,13 +7710,13 @@
         <v>76</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>384</v>
@@ -7738,19 +7738,19 @@
         <v>76</v>
       </c>
       <c r="F57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="J57" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>387</v>
@@ -7815,13 +7815,13 @@
         <v>76</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>391</v>
@@ -7843,7 +7843,7 @@
         <v>76</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>75</v>
@@ -7852,7 +7852,7 @@
         <v>75</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>313</v>
@@ -7922,13 +7922,13 @@
         <v>76</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>399</v>
@@ -7952,7 +7952,7 @@
         <v>76</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>75</v>
@@ -7961,7 +7961,7 @@
         <v>75</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>346</v>
@@ -8035,7 +8035,7 @@
         <v>75</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>353</v>
@@ -8057,25 +8057,25 @@
         <v>76</v>
       </c>
       <c r="F60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J60" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J60" t="s" s="2">
+      <c r="K60" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8126,22 +8126,22 @@
         <v>75</v>
       </c>
       <c r="AE60" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>75</v>
@@ -8153,7 +8153,7 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8172,16 +8172,16 @@
         <v>75</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8219,19 +8219,19 @@
         <v>75</v>
       </c>
       <c r="AA61" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AB61" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AB61" t="s" s="2">
+      <c r="AC61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD61" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD61" t="s" s="2">
+      <c r="AE61" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>76</v>
@@ -8243,10 +8243,10 @@
         <v>75</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>75</v>
@@ -8262,10 +8262,10 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>75</v>
@@ -8274,7 +8274,7 @@
         <v>75</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>208</v>
@@ -8344,13 +8344,13 @@
         <v>76</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>370</v>
@@ -8372,19 +8372,19 @@
         <v>76</v>
       </c>
       <c r="F63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="J63" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>373</v>
@@ -8449,13 +8449,13 @@
         <v>76</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>377</v>
@@ -8477,7 +8477,7 @@
         <v>76</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>75</v>
@@ -8486,7 +8486,7 @@
         <v>75</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>188</v>
@@ -8554,13 +8554,13 @@
         <v>76</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>384</v>
@@ -8582,19 +8582,19 @@
         <v>76</v>
       </c>
       <c r="F65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="J65" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>387</v>
@@ -8659,13 +8659,13 @@
         <v>76</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>391</v>
@@ -8687,7 +8687,7 @@
         <v>76</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>75</v>
@@ -8696,7 +8696,7 @@
         <v>75</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>313</v>
@@ -8766,13 +8766,13 @@
         <v>76</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>399</v>
@@ -8794,19 +8794,19 @@
         <v>76</v>
       </c>
       <c r="F67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="J67" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>124</v>
@@ -8873,13 +8873,13 @@
         <v>76</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>408</v>
@@ -8910,7 +8910,7 @@
         <v>75</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>159</v>
@@ -8982,7 +8982,7 @@
         <v>75</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>75</v>
@@ -9004,25 +9004,25 @@
         <v>76</v>
       </c>
       <c r="F69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J69" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J69" t="s" s="2">
+      <c r="K69" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9073,22 +9073,22 @@
         <v>75</v>
       </c>
       <c r="AE69" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>75</v>
@@ -9100,7 +9100,7 @@
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9119,16 +9119,16 @@
         <v>75</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9166,19 +9166,19 @@
         <v>75</v>
       </c>
       <c r="AA70" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AB70" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AB70" t="s" s="2">
+      <c r="AC70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD70" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD70" t="s" s="2">
+      <c r="AE70" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>76</v>
@@ -9190,10 +9190,10 @@
         <v>75</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>75</v>
@@ -9212,7 +9212,7 @@
         <v>76</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>75</v>
@@ -9221,7 +9221,7 @@
         <v>75</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J71" t="s" s="2">
         <v>130</v>
@@ -9289,13 +9289,13 @@
         <v>76</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>75</v>
@@ -9317,7 +9317,7 @@
         <v>76</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>75</v>
@@ -9394,7 +9394,7 @@
         <v>76</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>429</v>
@@ -9424,7 +9424,7 @@
         <v>76</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>75</v>
@@ -9503,7 +9503,7 @@
         <v>76</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>429</v>
@@ -9531,7 +9531,7 @@
         <v>76</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>75</v>
@@ -9540,7 +9540,7 @@
         <v>75</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J74" t="s" s="2">
         <v>438</v>
@@ -9608,13 +9608,13 @@
         <v>76</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>443</v>
@@ -9638,7 +9638,7 @@
         <v>76</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>75</v>
@@ -9717,7 +9717,7 @@
         <v>76</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>429</v>
@@ -9729,7 +9729,7 @@
         <v>450</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76">
@@ -9747,7 +9747,7 @@
         <v>76</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>75</v>
@@ -9826,7 +9826,7 @@
         <v>76</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>429</v>
@@ -9856,7 +9856,7 @@
         <v>76</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>75</v>
@@ -9935,7 +9935,7 @@
         <v>76</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>429</v>
@@ -9963,7 +9963,7 @@
         <v>76</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>75</v>
@@ -10042,7 +10042,7 @@
         <v>76</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>429</v>
@@ -10054,7 +10054,7 @@
         <v>450</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79">
@@ -10070,7 +10070,7 @@
         <v>76</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>75</v>
@@ -10149,7 +10149,7 @@
         <v>76</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>429</v>
@@ -10177,7 +10177,7 @@
         <v>76</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>75</v>
@@ -10256,7 +10256,7 @@
         <v>76</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>429</v>
